--- a/samples/valid_userGroups_import.xlsx
+++ b/samples/valid_userGroups_import.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15075"/>
+    <workbookView windowWidth="28665" windowHeight="20655"/>
   </bookViews>
   <sheets>
-    <sheet name="owners" sheetId="1" r:id="rId1"/>
+    <sheet name="groups" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>name</t>
   </si>
@@ -22,22 +22,19 @@
     <t>description</t>
   </si>
   <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>My First Owner</t>
+    <t>My First User Group</t>
   </si>
   <si>
     <t>some sample description</t>
   </si>
   <si>
-    <t>My Second Owner</t>
+    <t>My Second User Group</t>
   </si>
   <si>
     <t>another sample description</t>
   </si>
   <si>
-    <t>My Third Owner</t>
+    <t>My Third User Group</t>
   </si>
   <si>
     <t>yet another sample description</t>
@@ -49,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -70,6 +67,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -78,81 +90,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -161,8 +98,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -170,37 +174,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,181 +218,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,15 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -466,17 +454,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,11 +482,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,139 +508,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,12 +714,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="description"/>
-    <tableColumn id="3" name="is_active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -987,61 +983,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="32.4" customWidth="1"/>
-    <col min="3" max="3" width="14.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
